--- a/medicine/Handicap/Code_de_l'action_sociale_et_des_familles/Code_de_l'action_sociale_et_des_familles.xlsx
+++ b/medicine/Handicap/Code_de_l'action_sociale_et_des_familles/Code_de_l'action_sociale_et_des_familles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Code_de_l%27action_sociale_et_des_familles</t>
+          <t>Code_de_l'action_sociale_et_des_familles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Code de l'action sociale et des familles (parfois abrégé en CASF), anciennement Code de la famille et de l'aide sociale, communément Code de la famille, est, en France, un ensemble de dispositions législatives et réglementaires sur l'action sociale et la famille.
 Ce code organise pour une grande part la solidarité républicaine  en direction de l'ensemble des familles, quelles qu'en soient leur situation et composition.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Code_de_l%27action_sociale_et_des_familles</t>
+          <t>Code_de_l'action_sociale_et_des_familles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Peu avant la Seconde Guerre mondiale, le décret-loi du 29 juillet 1939 relatif à la famille et à la natalité française[2], communément appelé Code de la famille, tente d'encourager le repeuplement de la France. Pour cela, il aggrave les peines sanctionnant l'avortement et institue une prime à la naissance du premier enfant si elle survient dans les deux ans du mariage.
-En 1956, le Code de la famille et de l'aide sociale est créé[3]. Il prend son nom actuel en 2000[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Peu avant la Seconde Guerre mondiale, le décret-loi du 29 juillet 1939 relatif à la famille et à la natalité française, communément appelé Code de la famille, tente d'encourager le repeuplement de la France. Pour cela, il aggrave les peines sanctionnant l'avortement et institue une prime à la naissance du premier enfant si elle survient dans les deux ans du mariage.
+En 1956, le Code de la famille et de l'aide sociale est créé. Il prend son nom actuel en 2000.
 Ce code « de la famille » réglemente tout ce qui touche à la famille, dont les aides sociales aux personnes.
 Le nouveau code, reprend l'essentiel des textes du précédent code, mais les présente dans un ordre différent.
 La famille est traitée dans le livre II « Formes d'aide » au même titre que l'enfance, les personnes âgées, les personnes handicapées, la pauvreté et les exclusions.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Code_de_l%27action_sociale_et_des_familles</t>
+          <t>Code_de_l'action_sociale_et_des_familles</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Contenu du code</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le code de l'action sociale et des familles contient les livres suivants :
 Livre I : Dispositions générales
@@ -558,7 +574,7 @@
 Titre IV : Institutions
 Livre II : Différentes formes d’aide et d’action sociale
 Titre I : Famille
-Titre II : Enfance (dont le chapitre V sur l'adoption)[5]
+Titre II : Enfance (dont le chapitre V sur l'adoption)
 Titre III : Personnes âgées
 Titre IV : Personnes handicapées
 Titre V : Personnes non bénéficiaires de la couverture maladie universelle
@@ -584,7 +600,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Code_de_l%27action_sociale_et_des_familles</t>
+          <t>Code_de_l'action_sociale_et_des_familles</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -602,7 +618,9 @@
           <t>Parties prenantes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les Parties prenantes sont les suivantes :
 Personnes concernées : 
